--- a/Data/Key_items.xlsx
+++ b/Data/Key_items.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10727"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dragoncapitalvn-my.sharepoint.com/personal/ducle_dragoncapital_com/Documents/Profiles/Desktop/Projects/VS/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/05c776d51af9edc4/Work-related/VS - Code project/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="79" documentId="11_F25DC773A252ABDACC10485F719957D85BDE58F1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5DAD8BDB-21D6-47D3-A31F-3F20413AEF90}"/>
+  <xr:revisionPtr revIDLastSave="80" documentId="11_F25DC773A252ABDACC10485F719957D85BDE58F1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E761060-4D42-9B49-9B2E-E3958C115605}"/>
   <bookViews>
-    <workbookView xWindow="25695" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="18360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>KeyCode</t>
   </si>
@@ -210,6 +210,27 @@
   </si>
   <si>
     <t>G2 Formation (%)</t>
+  </si>
+  <si>
+    <t>and Timeframe, very similar to our current\       │</t>
+  </si>
+  <si>
+    <t>│   2. If the Ticker is a bank (3 letter), look into the banking_comments file and get the accurate bank and timeframe as the question\    │</t>
+  </si>
+  <si>
+    <t>│   3. IF the Ticker is secotr, look into quarterly_analysis_results file and return the timeframe \                                       │</t>
+  </si>
+  <si>
+    <t>│   4. Afterward send everything to OpenAI as before\                                                                                      │</t>
+  </si>
+  <si>
+    <t>│   \                                                                                                                                      │</t>
+  </si>
+  <si>
+    <t>│   For step 1, some logic in prompting:\                                                                                                  │</t>
+  </si>
+  <si>
+    <t xml:space="preserve">│   1. If                                                                                          </t>
   </si>
 </sst>
 </file>
@@ -536,19 +557,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="G19" sqref="G19:G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -556,7 +577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -564,7 +585,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -572,7 +593,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -580,7 +601,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>40</v>
       </c>
@@ -588,7 +609,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>46</v>
       </c>
@@ -596,7 +617,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>42</v>
       </c>
@@ -604,7 +625,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>44</v>
       </c>
@@ -612,7 +633,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -620,7 +641,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -628,7 +649,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>54</v>
       </c>
@@ -636,7 +657,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>55</v>
       </c>
@@ -644,7 +665,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -652,7 +673,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>34</v>
       </c>
@@ -660,7 +681,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -668,7 +689,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -676,7 +697,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -684,7 +705,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -692,63 +713,84 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>36</v>
       </c>
       <c r="B19" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>6</v>
       </c>
       <c r="B20" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>14</v>
       </c>
       <c r="B21" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>16</v>
       </c>
       <c r="B22" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>10</v>
       </c>
       <c r="B23" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>20</v>
       </c>
       <c r="B24" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G24" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>22</v>
       </c>
       <c r="B25" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G25" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -756,7 +798,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -764,7 +806,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>50</v>
       </c>
@@ -772,7 +814,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>48</v>
       </c>

--- a/Data/Key_items.xlsx
+++ b/Data/Key_items.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/05c776d51af9edc4/Work-related/VS - Code project/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="80" documentId="11_F25DC773A252ABDACC10485F719957D85BDE58F1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E761060-4D42-9B49-9B2E-E3958C115605}"/>
+  <xr:revisionPtr revIDLastSave="81" documentId="11_F25DC773A252ABDACC10485F719957D85BDE58F1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4F217D43-6167-DD45-980D-ACB7B0127BEB}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="18360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>KeyCode</t>
   </si>
@@ -210,27 +210,6 @@
   </si>
   <si>
     <t>G2 Formation (%)</t>
-  </si>
-  <si>
-    <t>and Timeframe, very similar to our current\       │</t>
-  </si>
-  <si>
-    <t>│   2. If the Ticker is a bank (3 letter), look into the banking_comments file and get the accurate bank and timeframe as the question\    │</t>
-  </si>
-  <si>
-    <t>│   3. IF the Ticker is secotr, look into quarterly_analysis_results file and return the timeframe \                                       │</t>
-  </si>
-  <si>
-    <t>│   4. Afterward send everything to OpenAI as before\                                                                                      │</t>
-  </si>
-  <si>
-    <t>│   \                                                                                                                                      │</t>
-  </si>
-  <si>
-    <t>│   For step 1, some logic in prompting:\                                                                                                  │</t>
-  </si>
-  <si>
-    <t xml:space="preserve">│   1. If                                                                                          </t>
   </si>
 </sst>
 </file>
@@ -557,7 +536,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="G19" sqref="G19:G25"/>
@@ -697,7 +676,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -705,7 +684,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -713,84 +692,63 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>36</v>
       </c>
       <c r="B19" t="s">
         <v>37</v>
       </c>
-      <c r="G19" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>6</v>
       </c>
       <c r="B20" t="s">
         <v>7</v>
       </c>
-      <c r="G20" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>14</v>
       </c>
       <c r="B21" t="s">
         <v>15</v>
       </c>
-      <c r="G21" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>16</v>
       </c>
       <c r="B22" t="s">
         <v>17</v>
       </c>
-      <c r="G22" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>10</v>
       </c>
       <c r="B23" t="s">
         <v>11</v>
       </c>
-      <c r="G23" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>20</v>
       </c>
       <c r="B24" t="s">
         <v>21</v>
       </c>
-      <c r="G24" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>22</v>
       </c>
       <c r="B25" t="s">
         <v>23</v>
       </c>
-      <c r="G25" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -798,7 +756,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -806,7 +764,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>50</v>
       </c>
@@ -814,7 +772,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>48</v>
       </c>

--- a/Data/Key_items.xlsx
+++ b/Data/Key_items.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10817"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/05c776d51af9edc4/Work-related/VS - Code project/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="81" documentId="11_F25DC773A252ABDACC10485F719957D85BDE58F1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4F217D43-6167-DD45-980D-ACB7B0127BEB}"/>
+  <xr:revisionPtr revIDLastSave="88" documentId="11_F25DC773A252ABDACC10485F719957D85BDE58F1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5A681423-78F5-244B-8FCE-F701A05DBD95}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="18360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>KeyCode</t>
   </si>
@@ -47,9 +47,6 @@
     <t>BS.1</t>
   </si>
   <si>
-    <t>BS.12</t>
-  </si>
-  <si>
     <t>BS.65</t>
   </si>
   <si>
@@ -210,6 +207,27 @@
   </si>
   <si>
     <t>G2 Formation (%)</t>
+  </si>
+  <si>
+    <t>BS.13</t>
+  </si>
+  <si>
+    <t>BS.14</t>
+  </si>
+  <si>
+    <t>Provision on Balance Sheet</t>
+  </si>
+  <si>
+    <t>Nt.220</t>
+  </si>
+  <si>
+    <t>Write-off</t>
+  </si>
+  <si>
+    <t>CA.26</t>
+  </si>
+  <si>
+    <t>Overdue_loan</t>
   </si>
 </sst>
 </file>
@@ -271,6 +289,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -536,10 +558,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19:G25"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -558,122 +580,122 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
         <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
         <v>18</v>
-      </c>
-      <c r="B3" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" t="s">
         <v>38</v>
-      </c>
-      <c r="B4" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" t="s">
         <v>40</v>
-      </c>
-      <c r="B5" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" t="s">
         <v>46</v>
-      </c>
-      <c r="B6" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" t="s">
         <v>42</v>
-      </c>
-      <c r="B7" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" t="s">
         <v>44</v>
-      </c>
-      <c r="B8" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
         <v>26</v>
-      </c>
-      <c r="B9" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
         <v>28</v>
-      </c>
-      <c r="B10" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" t="s">
         <v>32</v>
-      </c>
-      <c r="B13" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" t="s">
         <v>34</v>
-      </c>
-      <c r="B14" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>3</v>
+        <v>57</v>
       </c>
       <c r="B15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -681,103 +703,127 @@
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" t="s">
         <v>36</v>
-      </c>
-      <c r="B19" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
         <v>6</v>
-      </c>
-      <c r="B20" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" t="s">
         <v>14</v>
-      </c>
-      <c r="B21" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" t="s">
         <v>16</v>
-      </c>
-      <c r="B22" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" t="s">
         <v>10</v>
-      </c>
-      <c r="B23" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" t="s">
         <v>20</v>
-      </c>
-      <c r="B24" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" t="s">
         <v>22</v>
-      </c>
-      <c r="B25" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
         <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" t="s">
         <v>30</v>
-      </c>
-      <c r="B27" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" t="s">
         <v>50</v>
-      </c>
-      <c r="B28" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" t="s">
         <v>48</v>
       </c>
-      <c r="B29" t="s">
-        <v>49</v>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
